--- a/Input_BESS_Proposal.xlsx
+++ b/Input_BESS_Proposal.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>S.No.</t>
   </si>
@@ -321,54 +321,24 @@
     <t>193 MWp</t>
   </si>
   <si>
-    <t>33KV</t>
-  </si>
-  <si>
     <t>Client Contact No</t>
   </si>
   <si>
     <t>Rev No</t>
   </si>
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>Offer No</t>
   </si>
   <si>
     <t>FY</t>
   </si>
   <si>
-    <t>2025-26</t>
-  </si>
-  <si>
-    <t>Zelestra</t>
-  </si>
-  <si>
     <t>Customer Caps</t>
   </si>
   <si>
-    <t>Zelestra Energy</t>
-  </si>
-  <si>
-    <t>3rd Floor, 
-Building 10B, 
-Cyber City, 
-Gurugram-122002, Haryana, India</t>
-  </si>
-  <si>
-    <t>Mr Subhamay Ganguly</t>
-  </si>
-  <si>
     <t>Client Dgsn</t>
   </si>
   <si>
-    <t>Sr. Manager Electrical Design BESS</t>
-  </si>
-  <si>
-    <t>7.5 MW/15 MWp</t>
-  </si>
-  <si>
     <t>Enrich Contact Dgsn</t>
   </si>
   <si>
@@ -378,30 +348,9 @@
     <t>Enrich Contact No</t>
   </si>
   <si>
-    <t>Saurabh Mathur</t>
-  </si>
-  <si>
-    <t>AVP</t>
-  </si>
-  <si>
-    <t>saurabh.mathur@enrichenergy.com</t>
-  </si>
-  <si>
-    <t>+91 8239555525</t>
-  </si>
-  <si>
     <t>Enrich Contact Name</t>
   </si>
   <si>
-    <t>subhamay.ganguly@zelestra.energy</t>
-  </si>
-  <si>
-    <t>+91 8697234755</t>
-  </si>
-  <si>
-    <t>EPC work for the project including Supply of Containerized Battery with BMS, PCS, EMS &amp; Balance Electrical Equipment’s.</t>
-  </si>
-  <si>
     <t>Enrich Scope</t>
   </si>
   <si>
@@ -417,9 +366,6 @@
     <t>Battery Make</t>
   </si>
   <si>
-    <t>Trina</t>
-  </si>
-  <si>
     <t>PCS Pwr</t>
   </si>
   <si>
@@ -429,24 +375,15 @@
     <t>PCS Qty</t>
   </si>
   <si>
-    <t>Newen</t>
-  </si>
-  <si>
     <t>EMS Make</t>
   </si>
   <si>
     <t>EMS Qty</t>
   </si>
   <si>
-    <t>ATS</t>
-  </si>
-  <si>
     <t>IDT Pwr</t>
   </si>
   <si>
-    <t>800V/33KV</t>
-  </si>
-  <si>
     <t>IDT Transformer</t>
   </si>
   <si>
@@ -456,13 +393,7 @@
     <t>Price in Words</t>
   </si>
   <si>
-    <t>Fourteen Crores Sixty Eight Lacs Sixty Seven Thousand &amp; Six Hundred Fifty Eight Only</t>
-  </si>
-  <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>14,68,67,658.00</t>
   </si>
   <si>
     <t>BCD</t>
@@ -876,7 +807,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -905,9 +836,7 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="C2" s="9"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -918,9 +847,7 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
@@ -930,11 +857,9 @@
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <f>A4+1</f>
         <v>4</v>
@@ -942,9 +867,7 @@
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
@@ -954,9 +877,7 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>108</v>
-      </c>
+      <c r="C6" s="9"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -965,11 +886,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -980,9 +899,7 @@
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>120</v>
-      </c>
+      <c r="C8" s="9"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -991,11 +908,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>121</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C9" s="9"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1004,11 +919,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>100</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1017,11 +930,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="9">
-        <v>8</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1030,11 +941,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1045,9 +954,7 @@
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
@@ -1055,11 +962,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
@@ -1067,11 +972,9 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>116</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
@@ -1079,11 +982,9 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>117</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
@@ -1091,23 +992,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -1117,9 +1014,7 @@
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>97</v>
-      </c>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
@@ -1127,11 +1022,9 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="9">
-        <v>50</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
@@ -1139,11 +1032,9 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5.0149999999999997</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -1151,11 +1042,9 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>128</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -1163,11 +1052,9 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="9">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -1175,11 +1062,9 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="9">
-        <v>2.77</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -1187,11 +1072,9 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>132</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
@@ -1199,11 +1082,9 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
@@ -1213,9 +1094,7 @@
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="9">
-        <v>8</v>
-      </c>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
@@ -1223,11 +1102,9 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>135</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
@@ -1235,11 +1112,9 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
@@ -1247,11 +1122,9 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="9">
-        <v>11.1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
@@ -1259,11 +1132,9 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
@@ -1271,23 +1142,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>141</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
@@ -1295,11 +1162,9 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>143</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
@@ -1307,11 +1172,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
@@ -1319,11 +1182,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="9">
-        <v>86</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
@@ -1331,11 +1192,9 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="9">
-        <v>12</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
@@ -1343,11 +1202,9 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="16">
-        <v>4</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
@@ -1395,7 +1252,7 @@
       </c>
       <c r="C42" s="9" t="str">
         <f>LEFT($C$13,3)</f>
-        <v>7.5</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1406,9 +1263,9 @@
       <c r="B43" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="9" t="str">
+      <c r="C43" s="9" t="e">
         <f>TRIM(MID(C13,FIND("/",C13)+1,FIND("MWp",C13)-FIND("/",C13)-1))</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1421,7 +1278,7 @@
       </c>
       <c r="C44" s="9" t="str">
         <f>UPPER($C$18)</f>
-        <v>EPC WORK FOR THE PROJECT INCLUDING SUPPLY OF CONTAINERIZED BATTERY WITH BMS, PCS, EMS &amp; BALANCE ELECTRICAL EQUIPMENT’S.</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1434,7 +1291,7 @@
       </c>
       <c r="C45" s="9" t="str">
         <f>UPPER($C$3)</f>
-        <v>TAMIL NADU</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1445,9 +1302,9 @@
       <c r="B46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="9" t="str">
+      <c r="C46" s="9" t="e">
         <f>VLOOKUP($C$3,State!$B$4:$C$39,2,0)</f>
-        <v>TN</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.35">
@@ -1456,11 +1313,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>UPPER($C$2)</f>
-        <v>ZELESTRA</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
